--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1149.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1149.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.87292294982061</v>
+        <v>1.160498738288879</v>
       </c>
       <c r="B1">
-        <v>2.339836617726951</v>
+        <v>2.410387516021729</v>
       </c>
       <c r="C1">
-        <v>2.481564347375711</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.182989880503906</v>
+        <v>2.383260011672974</v>
       </c>
       <c r="E1">
-        <v>1.969123539078921</v>
+        <v>1.230436444282532</v>
       </c>
     </row>
   </sheetData>
